--- a/houshold_size.xlsx
+++ b/houshold_size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8d1fa1128b63067/Documents/GitHub/IH_AB_DA_FT_MAY_2023/Midterm_projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{127788E1-3854-4688-86F7-87AC751107D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B89BE0-6BDC-47F7-A6E9-1478832173D2}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{127788E1-3854-4688-86F7-87AC751107D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F342D34C-A6D0-444C-8E7B-874E7FDB93F9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{DA6865D9-12D3-4FE1-91C6-DF82ACF0440C}"/>
+    <workbookView xWindow="0" yWindow="408" windowWidth="14496" windowHeight="9960" xr2:uid="{DA6865D9-12D3-4FE1-91C6-DF82ACF0440C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="300">
   <si>
     <t>Senegal</t>
   </si>
@@ -835,6 +835,105 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>Saint-Barthelemy</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>2.25</t>
   </si>
 </sst>
 </file>
@@ -917,6 +1016,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,9 +1319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76536D4D-0C55-4F4F-9E65-B96B73D929EA}">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:XFD165"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2557,7 +2662,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -2765,7 +2870,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" ht="22.2" customHeight="1">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -2776,69 +2881,300 @@
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
+    <row r="142" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="22.2" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2">
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2">
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
         <v>164</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2">
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
         <v>165</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2">
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
         <v>166</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>263</v>
       </c>
     </row>
